--- a/Finance/Base_Dados.xlsx
+++ b/Finance/Base_Dados.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr/>
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jean Lima\Documents\Finance.py\Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5691794-106D-4F35-8E1C-DC7B25E154B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B97C56-3B99-4537-BC2A-BF81D6228A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tipos de Gastos" sheetId="9" state="hidden" r:id="rId1"/>
-    <sheet name="Gastos" sheetId="7" r:id="rId2"/>
-    <sheet name="Entradas" sheetId="8" r:id="rId3"/>
+    <sheet name="Tipos " sheetId="9" state="hidden" r:id="rId1"/>
+    <sheet name="Gastos(Dia)" sheetId="7" r:id="rId2"/>
+    <sheet name="Entradas(Dia)" sheetId="8" r:id="rId3"/>
+    <sheet name="Saldo(Dia)" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>Açougue</t>
   </si>
@@ -116,6 +139,45 @@
   </si>
   <si>
     <t>Tipos de Gasto</t>
+  </si>
+  <si>
+    <t>Tipos de Entrada</t>
+  </si>
+  <si>
+    <t>Salario</t>
+  </si>
+  <si>
+    <t>Jogo do Bicho</t>
+  </si>
+  <si>
+    <t>Achei na Rua</t>
+  </si>
+  <si>
+    <t>Ganhei uma Aposta</t>
+  </si>
+  <si>
+    <t>Urubu do Pix</t>
+  </si>
+  <si>
+    <t>Minha Mãe me deu</t>
+  </si>
+  <si>
+    <t>Ganhei numa Corrida Contra o dono</t>
+  </si>
+  <si>
+    <t>Ganhei numa Corrida Contra o Dono</t>
+  </si>
+  <si>
+    <t>Vendi Meu carro</t>
+  </si>
+  <si>
+    <t>Total Entrada</t>
+  </si>
+  <si>
+    <t>Total Saida</t>
+  </si>
+  <si>
+    <t>Saldo</t>
   </si>
 </sst>
 </file>
@@ -172,19 +234,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -271,16 +343,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45D95991-EFD6-41FC-9620-431DFC1BADD0}" name="Tabela2" displayName="Tabela2" ref="A1:A23" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45D95991-EFD6-41FC-9620-431DFC1BADD0}" name="Tabela2" displayName="Tabela2" ref="A1:A23" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:A23" xr:uid="{45D95991-EFD6-41FC-9620-431DFC1BADD0}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{BC25F85D-55A4-440D-80F5-6476BC60F110}" name="Tipos de Gasto" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BC25F85D-55A4-440D-80F5-6476BC60F110}" name="Tipos de Gasto" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F1AC5BF6-69AA-4B70-AE2B-BB56886E5198}" name="Tabela4" displayName="Tabela4" ref="C1:C10" totalsRowShown="0">
+  <autoFilter ref="C1:C10" xr:uid="{F1AC5BF6-69AA-4B70-AE2B-BB56886E5198}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{6D95AE80-1EEC-46B4-9891-EE4A2E630823}" name="Tipos de Entrada"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE6FD5BE-21AE-425A-BCCC-E37935C4D132}" name="Tabela1" displayName="Tabela1" ref="A1:C22" totalsRowShown="0">
   <autoFilter ref="A1:C22" xr:uid="{CE6FD5BE-21AE-425A-BCCC-E37935C4D132}"/>
   <tableColumns count="3">
@@ -289,6 +371,36 @@
     <tableColumn id="3" xr3:uid="{A0C36BDB-D80A-497E-B9C4-453FC3CF05EF}" name="Valor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FFDF610D-6E7D-45C6-B952-AA62D8F7F4A3}" name="Tabela14" displayName="Tabela14" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22" xr:uid="{FFDF610D-6E7D-45C6-B952-AA62D8F7F4A3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EA83B784-FA8E-417E-905E-C4D1BE094EE5}" name="DATA"/>
+    <tableColumn id="2" xr3:uid="{31655701-0B9D-460C-A0A9-18F966C6D3F7}" name="TIPO"/>
+    <tableColumn id="3" xr3:uid="{B794FB99-5E4E-44CA-A0AC-5B03FC4EDC34}" name="Valor"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BA5047B4-4A60-4702-A02E-F1905C513F0D}" name="Tabela5" displayName="Tabela5" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{BA5047B4-4A60-4702-A02E-F1905C513F0D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7E7E94DC-5454-4F89-AF32-2FE6DD7809E3}" name="Total Entrada" dataDxfId="2">
+      <calculatedColumnFormula array="1">SUM(-Tabela1[Valor])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{F3DBC13B-A6AE-4B26-86CE-FA568CDFD7F3}" name="Total Saida" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Tabela14[Valor])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{9D07E1C3-9EAB-4F27-8CF3-71A1CD5327C3}" name="Saldo" dataDxfId="0">
+      <calculatedColumnFormula>SUM(A2:B2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -490,93 +602,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B02A1DD-3E2A-4F4E-9AE3-9ED901CB854F}">
-  <dimension ref="A1:A28"/>
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -633,18 +777,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521E630B-DE59-43C2-9DE4-B9B63F899B55}">
+  <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,227 +820,227 @@
         <v>21</v>
       </c>
       <c r="C2" s="3">
-        <v>2136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44959</v>
+        <v>44958</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>2136</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44960</v>
+        <v>44958</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>2136</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44961</v>
+        <v>44958</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>2136</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44962</v>
+        <v>44958</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>2136</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44963</v>
+        <v>44958</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>2136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44964</v>
+        <v>44958</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>2136</v>
+        <v>232.13333333333301</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44965</v>
+        <v>44958</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="3">
-        <v>2136</v>
+        <v>259.50476190476201</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44966</v>
+        <v>44958</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>2136</v>
+        <v>286.87619047619103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44967</v>
+        <v>44958</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>2136</v>
+        <v>314.24761904761903</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44968</v>
+        <v>44958</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="3">
-        <v>2136</v>
+        <v>341.61904761904799</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44969</v>
+        <v>44958</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="3">
-        <v>2136</v>
+        <v>368.99047619047599</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44970</v>
+        <v>44958</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="3">
-        <v>2136</v>
+        <v>396.36190476190501</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44971</v>
+        <v>44958</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="3">
-        <v>2136</v>
+        <v>423.73333333333301</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44972</v>
+        <v>44958</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>2136</v>
+        <v>451.10476190476197</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44973</v>
+        <v>44958</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>2136</v>
+        <v>478.47619047619003</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44974</v>
+        <v>44958</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>2136</v>
+        <v>505.84761904761899</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44975</v>
+        <v>44958</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="3">
-        <v>2136</v>
+        <v>533.21904761904796</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44976</v>
+        <v>44958</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>2136</v>
+        <v>560.59047619047601</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44977</v>
+        <v>44958</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="3">
-        <v>2136</v>
+        <v>587.96190476190498</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44978</v>
+        <v>44958</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="3">
-        <v>2136</v>
+        <v>615.33333333333303</v>
       </c>
     </row>
   </sheetData>
@@ -907,7 +1053,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7FA9C4B6-B398-404E-A9F2-D92645B4BFBA}">
           <x14:formula1>
-            <xm:f>'Tipos de Gastos'!$A$2:$A$23</xm:f>
+            <xm:f>'Tipos '!$A$2:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -919,14 +1065,327 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF104845-8F1E-41A3-90A4-26913ADAAC75}">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3">
+        <v>31.8928571428571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3">
+        <v>32.428571428571402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3">
+        <v>32.964285714285701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3">
+        <v>34.035714285714299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3">
+        <v>34.571428571428598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3">
+        <v>35.107142857142797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3">
+        <v>35.642857142857103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <v>36.178571428571402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3">
+        <v>36.714285714285701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3">
+        <v>37.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3">
+        <v>37.785714285714299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3">
+        <v>38.321428571428598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3">
+        <v>38.857142857142897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{53EB3732-EB4F-4C72-B9F9-C72A3E7A0FAD}">
+          <x14:formula1>
+            <xm:f>'Tipos '!$C$2:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D29B23C-79BA-404A-9094-DFED6FF4899D}">
+  <sheetPr codeName="Planilha4"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" cm="1">
+        <f t="array" ref="A2">SUM(-Tabela1[Valor])</f>
+        <v>-7174</v>
+      </c>
+      <c r="B2" s="4">
+        <f>SUM(Tabela14[Valor])</f>
+        <v>782.24999999999989</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUM(A2:B2)</f>
+        <v>-6391.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Finance/Base_Dados.xlsx
+++ b/Finance/Base_Dados.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jean Lima\Documents\Finance.py\Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B97C56-3B99-4537-BC2A-BF81D6228A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8030F31-446E-4560-9928-17F8065102D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipos " sheetId="9" state="hidden" r:id="rId1"/>
-    <sheet name="Gastos(Dia)" sheetId="7" r:id="rId2"/>
-    <sheet name="Entradas(Dia)" sheetId="8" r:id="rId3"/>
-    <sheet name="Saldo(Dia)" sheetId="10" r:id="rId4"/>
+    <sheet name="Teste" sheetId="11" r:id="rId2"/>
+    <sheet name="Gastos" sheetId="7" r:id="rId3"/>
+    <sheet name="Entradas" sheetId="8" r:id="rId4"/>
+    <sheet name="Saldo" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>Açougue</t>
   </si>
@@ -178,6 +179,30 @@
   </si>
   <si>
     <t>Saldo</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>entrada</t>
+  </si>
+  <si>
+    <t>saida</t>
+  </si>
+  <si>
+    <t>saldo</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Saida</t>
+  </si>
+  <si>
+    <t>Balanço</t>
   </si>
 </sst>
 </file>
@@ -234,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -242,6 +267,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -363,6 +389,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EEF8541A-9EEB-493D-B9AE-427E085ED6F5}" name="Tabela6" displayName="Tabela6" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{EEF8541A-9EEB-493D-B9AE-427E085ED6F5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E4445D9B-A283-4322-B4F9-120BEDD0D119}" name="Entrada" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{FC6F07B8-2D0B-419B-8056-DA5B7BCF9C1A}" name="Saida" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C502BBB5-228F-4DC6-842D-BEA0CE0DE631}" name="Tabela7" displayName="Tabela7" ref="D1:F2" totalsRowShown="0">
+  <autoFilter ref="D1:F2" xr:uid="{C502BBB5-228F-4DC6-842D-BEA0CE0DE631}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B19DCC73-7045-46B8-AC33-BC3C3FCFFC8F}" name="Total Entrada" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SUM(A:A)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{78D745BC-16B9-4121-983D-C567465DF4EA}" name="Total Saida" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SUM(B:B)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{EEBF31C7-9D15-4A3B-8FEB-7F77B04EFCBF}" name="Balanço" dataCellStyle="Moeda">
+      <calculatedColumnFormula>D2-E2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE6FD5BE-21AE-425A-BCCC-E37935C4D132}" name="Tabela1" displayName="Tabela1" ref="A1:C22" totalsRowShown="0">
   <autoFilter ref="A1:C22" xr:uid="{CE6FD5BE-21AE-425A-BCCC-E37935C4D132}"/>
   <tableColumns count="3">
@@ -374,7 +429,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FFDF610D-6E7D-45C6-B952-AA62D8F7F4A3}" name="Tabela14" displayName="Tabela14" ref="A1:C22" totalsRowShown="0">
   <autoFilter ref="A1:C22" xr:uid="{FFDF610D-6E7D-45C6-B952-AA62D8F7F4A3}"/>
   <tableColumns count="3">
@@ -386,7 +441,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BA5047B4-4A60-4702-A02E-F1905C513F0D}" name="Tabela5" displayName="Tabela5" ref="A1:C2" totalsRowShown="0">
   <autoFilter ref="A1:C2" xr:uid="{BA5047B4-4A60-4702-A02E-F1905C513F0D}"/>
   <tableColumns count="3">
@@ -785,12 +840,108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6293157-992A-4B9B-8F3B-E9477BF3EB44}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>800</v>
+      </c>
+      <c r="B2" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2" s="5">
+        <f>SUM(A:A)</f>
+        <v>11344</v>
+      </c>
+      <c r="E2" s="5">
+        <f>SUM(B:B)</f>
+        <v>10822</v>
+      </c>
+      <c r="F2" s="5">
+        <f>D2-E2</f>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>285</v>
+      </c>
+      <c r="B3" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>257</v>
+      </c>
+      <c r="B4" s="5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>127</v>
+      </c>
+      <c r="B5" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>9875</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521E630B-DE59-43C2-9DE4-B9B63F899B55}">
   <sheetPr codeName="Planilha2"/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +952,7 @@
     <col min="4" max="6" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -811,8 +962,17 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44958</v>
       </c>
@@ -822,8 +982,18 @@
       <c r="C2" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>-25</v>
+      </c>
+      <c r="I2">
+        <f>SUM(G2:G6)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44958</v>
       </c>
@@ -833,8 +1003,14 @@
       <c r="C3" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44958</v>
       </c>
@@ -844,8 +1020,14 @@
       <c r="C4" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44958</v>
       </c>
@@ -855,8 +1037,14 @@
       <c r="C5" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44958</v>
       </c>
@@ -866,8 +1054,14 @@
       <c r="C6" s="3">
         <v>201</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44958</v>
       </c>
@@ -878,7 +1072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44958</v>
       </c>
@@ -889,7 +1083,7 @@
         <v>232.13333333333301</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44958</v>
       </c>
@@ -900,7 +1094,7 @@
         <v>259.50476190476201</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44958</v>
       </c>
@@ -911,7 +1105,7 @@
         <v>286.87619047619103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44958</v>
       </c>
@@ -922,7 +1116,7 @@
         <v>314.24761904761903</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44958</v>
       </c>
@@ -933,7 +1127,7 @@
         <v>341.61904761904799</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44958</v>
       </c>
@@ -944,7 +1138,7 @@
         <v>368.99047619047599</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44958</v>
       </c>
@@ -955,7 +1149,7 @@
         <v>396.36190476190501</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44958</v>
       </c>
@@ -966,7 +1160,7 @@
         <v>423.73333333333301</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44958</v>
       </c>
@@ -1063,13 +1257,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF104845-8F1E-41A3-90A4-26913ADAAC75}">
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,13 +1535,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D29B23C-79BA-404A-9094-DFED6FF4899D}">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
